--- a/import-export/src/main/resources/books_sample.xlsx
+++ b/import-export/src/main/resources/books_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidvanrijswijk/IdeaProjects/Super_Biblioteka/import-export/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041B0EB-8DAE-FC42-B4DE-2D8B6DA2C37F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861FB1D4-1E20-5242-AC73-9622425402CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19900" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,14 +390,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -411,7 +412,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -428,13 +429,13 @@
       <c r="B2" s="2">
         <v>37723</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>345</v>
       </c>
     </row>
@@ -445,13 +446,13 @@
       <c r="B3" s="2">
         <v>40474</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>343</v>
       </c>
     </row>
